--- a/Assets/Document/AI.xlsx
+++ b/Assets/Document/AI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\AI_FSM.git\trunk\Assets\Resources\xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\AI_FSM.git\trunk\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,16 +57,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Military</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AI010001</t>
   </si>
   <si>
     <t>AI010002</t>
   </si>
   <si>
+    <t>AI020001</t>
+  </si>
+  <si>
+    <t>AI020002</t>
+  </si>
+  <si>
+    <t>AI020003</t>
+  </si>
+  <si>
+    <t>AI020004</t>
+  </si>
+  <si>
+    <t>AI020005</t>
+  </si>
+  <si>
     <t>SM010001</t>
   </si>
   <si>
     <t>SM010002</t>
+  </si>
+  <si>
+    <t>SM020001</t>
+  </si>
+  <si>
+    <t>SM020002</t>
   </si>
 </sst>
 </file>
@@ -153,6 +186,9 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="AtkRange" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="AtkSpeed" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Military" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="AtkType" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="MoveSpeed" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -168,9 +204,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:G3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:G3"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:J8" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:J8"/>
+  <tableColumns count="10">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/ID" xmlDataType="string"/>
     </tableColumn>
@@ -191,6 +227,15 @@
     </tableColumn>
     <tableColumn id="7" uniqueName="Damage" name="Damage">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/Damage" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="Military" name="Military">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/Military" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="AtkType" name="AtkType">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/AtkType" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="MoveSpeed" name="MoveSpeed">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/MoveSpeed" xmlDataType="double"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -460,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -475,9 +520,12 @@
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,19 +547,28 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -522,28 +579,206 @@
       <c r="G2">
         <v>100</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1.3</v>
+      </c>
+      <c r="G3">
+        <v>180</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>1.5</v>
       </c>
-      <c r="G3">
-        <v>200</v>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.7</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.7</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.7</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>800</v>
+      </c>
+      <c r="C8">
+        <v>1200</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="F8">
+        <v>1.8</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Document/AI.xlsx
+++ b/Assets/Document/AI.xlsx
@@ -27,12 +27,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MinHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,6 +73,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AtkMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateAnimation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateAnimation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateAnimation3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateAnimation4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateAnimation5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateAnimation6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateAnimation7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateAnimation8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateAnimation9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateAnimation10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AI010001</t>
   </si>
   <si>
@@ -93,13 +141,46 @@
     <t>SM010001</t>
   </si>
   <si>
-    <t>SM010002</t>
-  </si>
-  <si>
     <t>SM020001</t>
   </si>
   <si>
     <t>SM020002</t>
+  </si>
+  <si>
+    <t>AI030001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM030001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrepareAtkState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -180,6 +261,7 @@
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Type" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MinHP" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="MaxHP" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="StateMachineID" form="unqualified"/>
@@ -189,6 +271,17 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Military" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="AtkType" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="MoveSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="AtkMode" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StateAnimation1" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StateAnimation2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StateAnimation3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StateAnimation4" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StateAnimation5" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StateAnimation6" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StateAnimation7" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StateAnimation8" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StateAnimation9" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StateAnimation10" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -204,38 +297,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:J8" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:J8"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:V9" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:V9"/>
+  <tableColumns count="22">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="MinHP" name="MinHP">
+    <tableColumn id="2" uniqueName="Type" name="Type">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/Type" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="MinHP" name="MinHP">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/MinHP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="MaxHP" name="MaxHP">
+    <tableColumn id="4" uniqueName="MaxHP" name="MaxHP">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/MaxHP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="StateMachineID" name="StateMachineID">
+    <tableColumn id="5" uniqueName="StateMachineID" name="StateMachineID">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateMachineID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="AtkRange" name="AtkRange">
+    <tableColumn id="6" uniqueName="AtkRange" name="AtkRange">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/AtkRange" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="AtkSpeed" name="AtkSpeed">
+    <tableColumn id="7" uniqueName="AtkSpeed" name="AtkSpeed">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/AtkSpeed" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Damage" name="Damage">
+    <tableColumn id="8" uniqueName="Damage" name="Damage">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/Damage" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Military" name="Military">
+    <tableColumn id="9" uniqueName="Military" name="Military">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/Military" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="AtkType" name="AtkType">
+    <tableColumn id="10" uniqueName="AtkType" name="AtkType">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/AtkType" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="MoveSpeed" name="MoveSpeed">
+    <tableColumn id="11" uniqueName="MoveSpeed" name="MoveSpeed">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/MoveSpeed" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="AtkMode" name="AtkMode">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/AtkMode" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="StateAnimation1" name="StateAnimation1">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateAnimation1" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="StateAnimation2" name="StateAnimation2">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateAnimation2" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="StateAnimation3" name="StateAnimation3">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateAnimation3" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="16" uniqueName="StateAnimation4" name="StateAnimation4">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateAnimation4" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="17" uniqueName="StateAnimation5" name="StateAnimation5">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateAnimation5" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="18" uniqueName="StateAnimation6" name="StateAnimation6">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateAnimation6" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="19" uniqueName="StateAnimation7" name="StateAnimation7">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateAnimation7" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="20" uniqueName="StateAnimation8" name="StateAnimation8">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateAnimation8" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="21" uniqueName="StateAnimation9" name="StateAnimation9">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateAnimation9" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="StateAnimation10" name="StateAnimation10">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/StateAnimation10" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -505,27 +634,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,236 +689,593 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>500</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1000</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>400</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>800</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1.3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>180</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>1</v>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>250</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>0.7</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>50</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>1.5</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>50</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>250</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>0.7</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>50</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>1.5</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>250</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>0.7</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>50</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>1.5</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>50</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>250</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>0.7</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>50</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>1.5</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>800</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1200</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
         <v>2.5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.8</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>300</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.7</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>180</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Document/AI.xlsx
+++ b/Assets/Document/AI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,23 +163,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IdleState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrepareAtkState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeathState</t>
+    <t>IdleState,Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkState,Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrepareAtkState,Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveState,Walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathState,Dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleState,Witch_Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkState,Witch_Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrepareAtkState,Witch_Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveState,Witch_Walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathState,Witch_Dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleState,Dragon_Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkState,Dragon_Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrepareAtkState,Dragon_Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveState,Dragon_Walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathState,Dragon_Dead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -654,7 +694,12 @@
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="19.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -832,19 +877,19 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
         <v>35</v>
@@ -1172,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R8" t="s">
         <v>35</v>

--- a/Assets/Document/AI.xlsx
+++ b/Assets/Document/AI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,20 +141,6 @@
     <t>SM010001</t>
   </si>
   <si>
-    <t>SM020001</t>
-  </si>
-  <si>
-    <t>SM020002</t>
-  </si>
-  <si>
-    <t>AI030001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM030001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SM010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,11 +201,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MoveState,Dragon_Walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DeathState,Dragon_Dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveState,Dragon_Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:V9" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:V9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:V8" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:V8"/>
   <tableColumns count="22">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/ArrayOfAIData/AIData/ID" xmlDataType="string"/>
@@ -674,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -797,7 +791,7 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -809,34 +803,34 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
-      </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -853,10 +847,10 @@
         <v>800</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>1.3</v>
@@ -865,7 +859,7 @@
         <v>180</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -877,34 +871,34 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>45</v>
-      </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -921,7 +915,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -933,7 +927,7 @@
         <v>50</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -945,34 +939,34 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
-      </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -989,7 +983,7 @@
         <v>250</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1001,7 +995,7 @@
         <v>50</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1013,34 +1007,34 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>40</v>
-      </c>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1057,7 +1051,7 @@
         <v>250</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1069,7 +1063,7 @@
         <v>50</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1081,34 +1075,34 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>40</v>
-      </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1125,7 +1119,7 @@
         <v>250</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1137,7 +1131,7 @@
         <v>50</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1149,34 +1143,34 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
         <v>36</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>40</v>
-      </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1193,7 +1187,7 @@
         <v>1200</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>2.5</v>
@@ -1205,7 +1199,7 @@
         <v>300</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1217,102 +1211,34 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
         <v>47</v>
       </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" t="s">
-        <v>49</v>
-      </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>180</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
